--- a/Quant II Recitation - Spring 2015.xlsx
+++ b/Quant II Recitation - Spring 2015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
   <si>
     <t>Quant II Recitation Schedule</t>
   </si>
@@ -364,6 +364,21 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>Project 1</t>
+  </si>
+  <si>
+    <t>Project 2</t>
+  </si>
+  <si>
+    <t>Project 3</t>
+  </si>
+  <si>
+    <t>Project 4</t>
+  </si>
+  <si>
+    <t>Quant II Course Schedules</t>
   </si>
 </sst>
 </file>
@@ -419,7 +434,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +451,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -469,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -533,7 +554,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,8 +826,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table14" displayName="Table14" ref="A2:K17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
-  <autoFilter ref="A2:K17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table14" displayName="Table14" ref="B2:L17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12">
+  <autoFilter ref="B2:L17"/>
   <tableColumns count="11">
     <tableColumn id="1" name=" #" dataDxfId="10"/>
     <tableColumn id="2" name="Week beginning" dataDxfId="9"/>
@@ -1099,17 +1132,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="4" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13" customWidth="1"/>
     <col min="4" max="4" width="23" style="13" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="13" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="13" customWidth="1"/>
@@ -1122,545 +1155,566 @@
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9">
+    <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9">
         <v>42023</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+    <row r="4" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="14">
+      <c r="C4" s="14">
         <v>42030</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+    <row r="5" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="14">
+      <c r="C5" s="14">
         <v>42037</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+    <row r="6" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="14">
+      <c r="C6" s="14">
         <v>42044</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+    <row r="8" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="13">
         <v>4</v>
       </c>
-      <c r="B8" s="14">
+      <c r="C8" s="14">
         <v>42058</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+    <row r="9" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="13">
         <v>5</v>
       </c>
-      <c r="B9" s="14">
+      <c r="C9" s="14">
         <v>42065</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="G9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14">
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="14">
         <v>42072</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="13">
         <v>6</v>
       </c>
-      <c r="B11" s="14">
+      <c r="C11" s="14">
         <v>42079</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+    <row r="12" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="13">
         <v>7</v>
       </c>
-      <c r="B12" s="14">
+      <c r="C12" s="14">
         <v>42086</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="L13" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="11"/>
+      <c r="K14" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="L14" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+    <row r="15" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="16">
         <v>8</v>
       </c>
-      <c r="B15" s="14">
+      <c r="C15" s="14">
         <v>42107</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="16"/>
+      <c r="H15" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="L15" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+    <row r="16" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="16">
         <v>9</v>
       </c>
-      <c r="B16" s="14">
+      <c r="C16" s="14">
         <v>42114</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="K16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="14">
+    <row r="17" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="16"/>
+      <c r="C17" s="14">
         <v>42121</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="K17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
       <c r="F18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+    <row r="19" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
       <c r="F19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+    <row r="20" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
       <c r="F20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+    <row r="21" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
       <c r="F21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+    <row r="22" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
       <c r="F22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+    <row r="23" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
       <c r="F23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+    <row r="24" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
       <c r="F24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+    <row r="25" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
       <c r="F25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+    <row r="26" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
       <c r="F26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
+    <row r="27" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
       <c r="F27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+    <row r="28" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1668,8 +1722,7 @@
       <c r="F28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+    <row r="29" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1677,8 +1730,7 @@
       <c r="F29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+    <row r="30" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1686,8 +1738,7 @@
       <c r="F30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+    <row r="31" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1695,8 +1746,7 @@
       <c r="F31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
+    <row r="32" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1704,8 +1754,7 @@
       <c r="F32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+    <row r="33" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1713,8 +1762,7 @@
       <c r="F33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
+    <row r="34" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1722,8 +1770,7 @@
       <c r="F34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+    <row r="35" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1731,8 +1778,7 @@
       <c r="F35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+    <row r="36" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1740,8 +1786,7 @@
       <c r="F36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+    <row r="37" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1749,8 +1794,7 @@
       <c r="F37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
+    <row r="38" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1758,8 +1802,7 @@
       <c r="F38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
+    <row r="39" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1767,8 +1810,7 @@
       <c r="F39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+    <row r="40" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1776,8 +1818,7 @@
       <c r="F40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+    <row r="41" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1785,8 +1826,7 @@
       <c r="F41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+    <row r="42" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1794,8 +1834,7 @@
       <c r="F42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+    <row r="43" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1803,8 +1842,7 @@
       <c r="F43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
+    <row r="44" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1812,8 +1850,7 @@
       <c r="F44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+    <row r="45" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1821,8 +1858,7 @@
       <c r="F45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+    <row r="46" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1830,8 +1866,7 @@
       <c r="F46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
+    <row r="47" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1839,8 +1874,7 @@
       <c r="F47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
+    <row r="48" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1848,8 +1882,7 @@
       <c r="F48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
+    <row r="49" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1857,8 +1890,7 @@
       <c r="F49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+    <row r="50" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1866,8 +1898,7 @@
       <c r="F50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
+    <row r="51" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1875,8 +1906,7 @@
       <c r="F51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+    <row r="52" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1884,8 +1914,7 @@
       <c r="F52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
+    <row r="53" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1893,8 +1922,7 @@
       <c r="F53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
+    <row r="54" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1902,8 +1930,7 @@
       <c r="F54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
+    <row r="55" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1911,8 +1938,7 @@
       <c r="F55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+    <row r="56" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1920,8 +1946,7 @@
       <c r="F56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+    <row r="57" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1929,8 +1954,7 @@
       <c r="F57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
+    <row r="58" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1938,8 +1962,7 @@
       <c r="F58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
+    <row r="59" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -1947,8 +1970,7 @@
       <c r="F59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
+    <row r="60" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1956,8 +1978,7 @@
       <c r="F60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
+    <row r="61" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -1965,8 +1986,7 @@
       <c r="F61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
+    <row r="62" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -1974,8 +1994,7 @@
       <c r="F62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
+    <row r="63" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -1983,8 +2002,7 @@
       <c r="F63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
+    <row r="64" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -1992,8 +2010,7 @@
       <c r="F64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
+    <row r="65" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2001,8 +2018,7 @@
       <c r="F65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
+    <row r="66" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2010,8 +2026,7 @@
       <c r="F66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
+    <row r="67" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2019,8 +2034,7 @@
       <c r="F67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
+    <row r="68" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2028,8 +2042,7 @@
       <c r="F68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
+    <row r="69" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2037,8 +2050,7 @@
       <c r="F69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
+    <row r="70" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2046,8 +2058,7 @@
       <c r="F70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
+    <row r="71" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2055,8 +2066,7 @@
       <c r="F71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
+    <row r="72" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2064,8 +2074,7 @@
       <c r="F72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
+    <row r="73" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2073,8 +2082,7 @@
       <c r="F73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
+    <row r="74" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2082,8 +2090,7 @@
       <c r="F74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
+    <row r="75" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2091,8 +2098,7 @@
       <c r="F75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
+    <row r="76" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2100,8 +2106,7 @@
       <c r="F76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+    <row r="77" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2109,8 +2114,7 @@
       <c r="F77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
+    <row r="78" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2119,8 +2123,13 @@
       <c r="K78" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="6">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Quant II Recitation - Spring 2015.xlsx
+++ b/Quant II Recitation - Spring 2015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
   <si>
     <t>Quant II Recitation Schedule</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Complex variable creation</t>
   </si>
   <si>
-    <t>user written commands</t>
-  </si>
-  <si>
     <t xml:space="preserve">bysort
 egen
 </t>
@@ -129,12 +126,6 @@
   <si>
     <t>F-tests
 estimation results</t>
-  </si>
-  <si>
-    <t>test
-lincom
-outreg2
-estout</t>
   </si>
   <si>
     <t>interactions
@@ -225,15 +216,6 @@
     <t>LPM/Probit/Logit</t>
   </si>
   <si>
-    <t xml:space="preserve"> predicted values
-</t>
-  </si>
-  <si>
-    <t>probit
-logit
-predict</t>
-  </si>
-  <si>
     <t>Heteroskedasticity</t>
   </si>
   <si>
@@ -311,16 +293,6 @@
     <t>Missing data</t>
   </si>
   <si>
-    <t>Identifying missing observations
-Creating missing dummies
-Identifying analysis sample</t>
-  </si>
-  <si>
-    <t>misstable
-mvdecode/mvencode
-egen rowmiss()</t>
-  </si>
-  <si>
     <t>research process</t>
   </si>
   <si>
@@ -342,10 +314,6 @@
 </t>
   </si>
   <si>
-    <t>display
-pause</t>
-  </si>
-  <si>
     <t>project presentations</t>
   </si>
   <si>
@@ -379,6 +347,43 @@
   </si>
   <si>
     <t>Quant II Course Schedules</t>
+  </si>
+  <si>
+    <t>basic creation of indicator and interaction variables</t>
+  </si>
+  <si>
+    <t>test, lincom
+outreg2, estout
+estimates save/use</t>
+  </si>
+  <si>
+    <t>probit, logit
+predict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave. predicted values
+ave. mfx </t>
+  </si>
+  <si>
+    <t>Identifying missing obs.
+Creating missing dummies
+Identifying analysis sample
+Recreating estimation sample</t>
+  </si>
+  <si>
+    <t>misstable
+mvdecode/mvencode
+egen rowmiss()
+esample()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display
+pause
+foreach
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> predicted values</t>
   </si>
 </sst>
 </file>
@@ -490,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -554,6 +559,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1134,18 +1142,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="4" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="13" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="25.28515625" style="2" customWidth="1"/>
@@ -1155,25 +1163,26 @@
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-    </row>
-    <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1208,7 +1217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
       <c r="C3" s="9">
         <v>42023</v>
@@ -1233,9 +1242,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>100</v>
+    <row r="4" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -1271,8 +1280,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
       <c r="B5" s="13">
         <v>2</v>
       </c>
@@ -1282,31 +1291,31 @@
       <c r="D5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="L5" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
       <c r="B6" s="13">
         <v>3</v>
       </c>
@@ -1314,58 +1323,58 @@
         <v>42044</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" s="15" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="11" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="D7" s="17" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>41</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>101</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="B8" s="13">
         <v>4</v>
@@ -1374,35 +1383,35 @@
         <v>42058</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="G8" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="H8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="I8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="J8" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
       <c r="B9" s="13">
         <v>5</v>
       </c>
@@ -1410,54 +1419,54 @@
         <v>42065</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="I9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="L9" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="14">
         <v>42072</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>102</v>
+    <row r="11" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="B11" s="13">
         <v>6</v>
@@ -1466,33 +1475,33 @@
         <v>42079</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
       <c r="B12" s="13">
         <v>7</v>
       </c>
@@ -1500,82 +1509,84 @@
         <v>42086</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="F12" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="D13" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>79</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>103</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="B15" s="16">
         <v>8</v>
@@ -1584,33 +1595,33 @@
         <v>42107</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
       <c r="B16" s="16">
         <v>9</v>
       </c>
@@ -1618,32 +1629,32 @@
         <v>42114</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="16"/>
       <c r="C17" s="14">
         <v>42121</v>
@@ -1654,13 +1665,13 @@
       <c r="G17" s="16"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L17" s="11"/>
     </row>
@@ -2131,7 +2142,7 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
